--- a/data/trans_camb/P12A1_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_2_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,47</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,37</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 25,05</t>
+          <t>-6,98; 3,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-38,25; 21,06</t>
+          <t>-7,58; 2,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-35,33; 9,49</t>
+          <t>-5,43; 5,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 23,3</t>
+          <t>-4,98; 3,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,86; 10,96</t>
+          <t>-4,12; 4,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 12,64</t>
+          <t>-1,54; 8,09</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 2,59</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 2,12</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 5,44</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>-13,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-22,7%</t>
+          <t>-33,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-30,73%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>-19,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,26%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,11%</t>
+          <t>66,96%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-15,87%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-17,72%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30,23%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,37; 85,08</t>
+          <t>-66,73; 97,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-67,86; 51,83</t>
+          <t>-73,04; 53,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,08; 30,7</t>
+          <t>-58,25; 131,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 90,11</t>
+          <t>-70,78; 139,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,2; 31,38</t>
+          <t>-59,4; 159,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,63; 36,29</t>
+          <t>-25,18; 291,87</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-55,21; 67,99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-57,31; 58,22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-30,58; 143,09</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,04</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,92</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 30,69</t>
+          <t>-5,25; 11,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 29,88</t>
+          <t>-9,79; 5,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 26,23</t>
+          <t>-7,53; 7,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 35,34</t>
+          <t>-7,29; 4,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 23,79</t>
+          <t>-5,48; 6,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 26,78</t>
+          <t>-6,07; 6,88</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 6,08</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 4,85</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 4,98</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>28,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>-17,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>-7,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>-16,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-3,88%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-0,26%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 75,1</t>
+          <t>-38,87; 156,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 77,45</t>
+          <t>-63,09; 80,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 72,64</t>
+          <t>-55,3; 114,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 99,79</t>
+          <t>-64,77; 82,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 57,68</t>
+          <t>-49,59; 118,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 64,09</t>
+          <t>-51,53; 123,17</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-34,18; 85,92</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-41,54; 72,29</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-41,45; 71,72</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>24,22</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-57,47; 25,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-47,07; 40,35</t>
+          <t>0,0; 21,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-38,65; 78,75</t>
+          <t>0,0; 15,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-50,42; 80,36</t>
+          <t>-2,27; 17,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-41,44; 29,94</t>
+          <t>-5,1; 8,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,12; 35,35</t>
+          <t>-6,02; 7,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 9,14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 6,59</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-35,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>61,17%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>225,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>57,97%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>230,14%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>380,36%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>158,83%</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,56; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,12; 351,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,48; 364,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 17,43</t>
+          <t>-3,69; 5,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 16,03</t>
+          <t>-5,21; 2,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 13,06</t>
+          <t>-4,57; 4,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 25,07</t>
+          <t>-3,82; 2,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 10,24</t>
+          <t>-2,87; 3,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 13,92</t>
+          <t>-1,25; 5,98</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 3,01</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 2,3</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 3,62</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,72%</t>
+          <t>-13,86%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,3%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,49%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>30,98%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-2,71%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14,44%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 47,55</t>
+          <t>-36,93; 91,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,94; 40,33</t>
+          <t>-51,95; 48,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,01; 34,87</t>
+          <t>-47,98; 78,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 71,36</t>
+          <t>-48,94; 58,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 24,93</t>
+          <t>-37,14; 90,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 35,08</t>
+          <t>-16,59; 138,56</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-29,4; 54,39</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-35,24; 41,74</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; 63,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
